--- a/Bills/test_file.xlsx
+++ b/Bills/test_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\CEFET\2021_1\Energia solar\Atividades\Atividade 6\trabalho_solar\Bills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC24C54-2E0F-4A01-B99F-0C00A1B082D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B7AFA9-C658-4A9D-BF0A-E2C32585601C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{7FC4A9E2-CA01-4E76-A93B-B738A45909A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{7FC4A9E2-CA01-4E76-A93B-B738A45909A7}"/>
   </bookViews>
   <sheets>
     <sheet name="bill" sheetId="1" r:id="rId1"/>
@@ -37,8 +37,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="30">
   <si>
     <t>month_year</t>
   </si>
@@ -128,9 +150,6 @@
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>equipmnet</t>
   </si>
 </sst>
 </file>
@@ -650,7 +669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08CA8346-B121-4C4E-ADE4-BEE410D94DF9}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -1022,9 +1041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64298701-20C0-488B-83DF-9DCE1CEDA862}">
   <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1032,8 +1049,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>25</v>
+      <c r="A1" t="str" cm="1">
+        <f t="array" ref="A1:A23">_xlfn._xlws.FILTER(ca_loads!A:A,ca_loads!A:A&lt;&gt;"","")</f>
+        <v>equipment</v>
       </c>
       <c r="B1" s="2">
         <v>0</v>
@@ -1109,8 +1127,8 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
+      <c r="A2" t="str">
+        <v>notebook thiago empresa</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1146,8 +1164,8 @@
       <c r="Y2" s="1"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
+      <c r="A3" t="str">
+        <v>notebook thiago pessoal</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1187,8 +1205,8 @@
       <c r="Y3" s="1"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
+      <c r="A4" t="str">
+        <v>notebook thaysa</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1224,8 +1242,8 @@
       <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
+      <c r="A5" t="str">
+        <v>notebook jane</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1261,8 +1279,8 @@
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
+      <c r="A6" t="str">
+        <v>geladeira</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>29</v>
@@ -1338,8 +1356,8 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
+      <c r="A7" t="str">
+        <v>microondas</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1369,8 +1387,8 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
+      <c r="A8" t="str">
+        <v>air frier</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1400,8 +1418,8 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
+      <c r="A9" t="str">
+        <v>televisao sala</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>29</v>
@@ -1433,8 +1451,8 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
+      <c r="A10" t="str">
+        <v>televisao quarto</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1468,8 +1486,8 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
+      <c r="A11" t="str">
+        <v>secador de cabelo</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1499,8 +1517,8 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
+      <c r="A12" t="str">
+        <v>maquina de lavar</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1530,8 +1548,8 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
+      <c r="A13" t="str">
+        <v>ventilador thiago</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
@@ -1573,8 +1591,8 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>15</v>
+      <c r="A14" t="str">
+        <v>chuveiro jane</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1604,8 +1622,8 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>16</v>
+      <c r="A15" t="str">
+        <v>chuveiro thiago</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1637,8 +1655,8 @@
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
+      <c r="A16" t="str">
+        <v>celular thiago</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1668,8 +1686,8 @@
       <c r="Y16" s="1"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
+      <c r="A17" t="str">
+        <v>celular thaysa</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1699,8 +1717,8 @@
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
+      <c r="A18" t="str">
+        <v>celular jane</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1730,8 +1748,8 @@
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>20</v>
+      <c r="A19" t="str">
+        <v>computador thiago</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>29</v>
@@ -1767,8 +1785,8 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>21</v>
+      <c r="A20" t="str">
+        <v>lampadas led</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>29</v>
@@ -1812,8 +1830,8 @@
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>22</v>
+      <c r="A21" t="str">
+        <v>alexa</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>29</v>
@@ -1889,8 +1907,8 @@
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>23</v>
+      <c r="A22" t="str">
+        <v>Filtro de agua</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>29</v>
@@ -1942,8 +1960,8 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>24</v>
+      <c r="A23" t="str">
+        <v>internet</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>29</v>
@@ -2028,14 +2046,18 @@
   <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>30</v>
+      <c r="A1" s="1" t="str" cm="1">
+        <f t="array" ref="A1">_xlfn._xlws.FILTER(cc_loads!A:A,cc_loads!A:A&lt;&gt;"","")</f>
+        <v>equipment</v>
       </c>
       <c r="B1" s="2">
         <v>0</v>

--- a/Bills/test_file.xlsx
+++ b/Bills/test_file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Documents\CEFET\2021_1\Energia solar\Atividades\Atividade 6\trabalho_solar\Bills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B7AFA9-C658-4A9D-BF0A-E2C32585601C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2983ED7-4075-459E-B1EF-798FB2E9FDD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{7FC4A9E2-CA01-4E76-A93B-B738A45909A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7FC4A9E2-CA01-4E76-A93B-B738A45909A7}"/>
   </bookViews>
   <sheets>
     <sheet name="bill" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="31">
   <si>
     <t>month_year</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>with_shower</t>
   </si>
 </sst>
 </file>
@@ -185,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -194,6 +197,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,15 +512,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956EDA79-8C23-4894-BD3C-F4F261B96202}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -526,138 +530,311 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>44348</v>
       </c>
-      <c r="B2">
-        <v>222</v>
+      <c r="B2" s="4">
+        <v>132</v>
       </c>
       <c r="C2">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>222</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>44317</v>
       </c>
-      <c r="B3">
-        <v>225</v>
+      <c r="B3" s="4">
+        <v>141</v>
       </c>
       <c r="C3">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>225</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>44287</v>
       </c>
-      <c r="B4">
-        <v>250</v>
+      <c r="B4" s="4">
+        <v>151</v>
       </c>
       <c r="C4">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>250</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>44256</v>
       </c>
-      <c r="B5">
-        <v>217</v>
+      <c r="B5" s="4">
+        <v>127</v>
       </c>
       <c r="C5">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>217</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>44228</v>
       </c>
-      <c r="B6">
-        <v>209</v>
+      <c r="B6" s="4">
+        <v>125</v>
       </c>
       <c r="C6">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>209</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>44197</v>
       </c>
-      <c r="B7">
-        <v>271</v>
+      <c r="B7" s="4">
+        <v>172</v>
       </c>
       <c r="C7">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>271</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>44166</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
+        <v>152</v>
+      </c>
+      <c r="C8">
+        <v>29</v>
+      </c>
+      <c r="D8">
         <v>239</v>
       </c>
-      <c r="C8">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>44136</v>
       </c>
-      <c r="B9">
-        <v>190</v>
+      <c r="B9" s="4">
+        <v>97</v>
       </c>
       <c r="C9">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>190</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>44105</v>
       </c>
-      <c r="B10">
-        <v>235</v>
+      <c r="B10" s="4">
+        <v>139</v>
       </c>
       <c r="C10">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>235</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>44075</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
+        <v>111</v>
+      </c>
+      <c r="C11">
+        <v>29</v>
+      </c>
+      <c r="D11">
         <v>198</v>
       </c>
-      <c r="C11">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>44044</v>
       </c>
-      <c r="B12">
-        <v>216</v>
+      <c r="B12" s="4">
+        <v>117</v>
       </c>
       <c r="C12">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>216</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>44013</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
+        <v>133</v>
+      </c>
+      <c r="C13">
+        <v>29</v>
+      </c>
+      <c r="D13">
         <v>220</v>
       </c>
-      <c r="C13">
-        <v>29</v>
-      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -669,7 +846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08CA8346-B121-4C4E-ADE4-BEE410D94DF9}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
